--- a/entrega/planillas/OCL_shannon.xlsx
+++ b/entrega/planillas/OCL_shannon.xlsx
@@ -3880,10 +3880,10 @@
         <v>0.9916114363357698</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
   </sheetData>
